--- a/Software EVISA version Johan/Modelos/Tamizaje mapeo.xlsx
+++ b/Software EVISA version Johan/Modelos/Tamizaje mapeo.xlsx
@@ -264,21 +264,21 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,18 +584,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -622,7 +622,7 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -631,56 +631,56 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
@@ -758,14 +758,14 @@
       <c r="Z3" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
@@ -840,7 +840,7 @@
       <c r="Y4" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" t="s">
         <v>27</v>
       </c>
@@ -852,17 +852,17 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -905,62 +905,62 @@
         <v>11</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P11" t="s">
         <v>52</v>
       </c>
+      <c r="Q11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="17" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G17" s="12">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -1015,7 +1015,7 @@
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G18" s="12">
+      <c r="G18" s="7">
         <f>G17+1</f>
         <v>2</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G19" s="12">
+      <c r="G19" s="7">
         <f t="shared" ref="G19:G23" si="0">G18+1</f>
         <v>3</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G20" s="12">
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G21" s="12">
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G22" s="12">
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G23" s="12">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1111,111 +1111,117 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
     <mergeCell ref="H36:M36"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H17:O17"/>
@@ -1232,12 +1238,6 @@
     <mergeCell ref="H34:M34"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
